--- a/nova/inventory.xlsx
+++ b/nova/inventory.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12585"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14385"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="406" uniqueCount="205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="198">
   <si>
     <t>Barracus</t>
   </si>
@@ -47,12 +47,6 @@
     <t xml:space="preserve"> Tazerecca</t>
   </si>
   <si>
-    <t>Xillanail</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Arch Nova alpha</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Tazerious</t>
   </si>
   <si>
@@ -350,30 +344,12 @@
     <t xml:space="preserve"> Baughe#2</t>
   </si>
   <si>
-    <t xml:space="preserve"> Smite Forger#2</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Kylen</t>
   </si>
   <si>
     <t xml:space="preserve"> Xeno Suzerain#2</t>
   </si>
   <si>
-    <t xml:space="preserve"> Demi Constrictor#2</t>
-  </si>
-  <si>
-    <t>Tazerecca</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Portal Noctil</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Tabitha</t>
-  </si>
-  <si>
-    <t>Sacred Sanctuary</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Deranged Fanatic</t>
   </si>
   <si>
@@ -639,6 +615,9 @@
   </si>
   <si>
     <t xml:space="preserve"> Tartarus Brood</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Erebus city sector</t>
   </si>
 </sst>
 </file>
@@ -992,10 +971,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W50"/>
+  <dimension ref="A1:V50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="22.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1003,18 +982,18 @@
     <col min="1" max="1" width="18.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="20.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="20.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="19.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="18.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="20.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="18.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="18.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="18.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="18.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="16.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="18.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="17" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="19.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="16.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="16.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="9.140625" style="1" bestFit="1" customWidth="1"/>
@@ -1022,16 +1001,15 @@
     <col min="20" max="20" width="17.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="13.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="22.28515625" style="1"/>
+    <col min="23" max="16384" width="22.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -1043,7 +1021,7 @@
         <v>3</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>4</v>
@@ -1052,210 +1030,92 @@
         <v>5</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="2" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="2"/>
+    </row>
+    <row r="3" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="2"/>
+    </row>
+    <row r="4" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="F4" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" s="1" t="s">
+      <c r="J4" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="P2" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="Q2" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="R2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="S2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="T2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="U2" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="V2" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="W2" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="3" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C3" s="1" t="s">
+      <c r="D5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="H3" s="1" t="s">
+      <c r="G5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H5" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="N3" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="O3" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="P3" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q3" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="R3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="S3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="T3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="U3" s="1" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="4" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>20</v>
       </c>
       <c r="I5" s="1" t="s">
         <v>2</v>
@@ -1264,189 +1124,192 @@
         <v>3</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="6" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>2</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="7" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="O7" s="1" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="P7" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="E8" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="F8" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="D8" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>34</v>
-      </c>
       <c r="G8" s="1" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="I8" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="N8" s="1" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="E9" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="J8" s="1" t="s">
+      <c r="F9" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="K8" s="1" t="s">
+      <c r="G9" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="L8" s="1" t="s">
+      <c r="H9" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="M8" s="1" t="s">
+      <c r="I9" s="1" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="9" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="B9" s="1" t="s">
+      <c r="J9" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="K9" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="L9" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="M9" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="F9" s="1" t="s">
+      <c r="N9" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="G9" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="K9" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="L9" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="M9" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="N9" s="1" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="10" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="10" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>0</v>
       </c>
@@ -1454,141 +1317,138 @@
         <v>1</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>109</v>
+        <v>21</v>
       </c>
       <c r="E10" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="F10" s="1" t="s">
+      <c r="B11" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="G10" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="K10" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="L10" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="M10" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="11" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="2" t="s">
+    </row>
+    <row r="12" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="2"/>
+    </row>
+    <row r="13" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="12" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="2"/>
-    </row>
-    <row r="13" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="2" t="s">
-        <v>27</v>
-      </c>
       <c r="B13" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G13" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="2"/>
     </row>
-    <row r="15" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E15" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="B15" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>80</v>
-      </c>
       <c r="F15" s="1" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="16" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="2"/>
     </row>
     <row r="17" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="18" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1599,36 +1459,36 @@
     </row>
     <row r="20" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="21" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B21" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="B21" s="1" t="s">
-        <v>80</v>
-      </c>
       <c r="C21" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>6</v>
@@ -1639,59 +1499,59 @@
     </row>
     <row r="22" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="23" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="24" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D24" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B24" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C24" s="1" t="s">
+      <c r="E24" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D24" s="1" t="s">
+      <c r="F24" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="E24" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>36</v>
-      </c>
       <c r="G24" s="1" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
     </row>
     <row r="25" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1699,68 +1559,68 @@
         <v>0</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="26" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D26" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B26" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="C26" s="1" t="s">
+      <c r="E26" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D26" s="1" t="s">
+      <c r="F26" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="E26" s="1" t="s">
+      <c r="G26" s="1" t="s">
         <v>40</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="G26" s="1" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="27" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C27" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F27" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D27" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>45</v>
-      </c>
       <c r="G27" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="28" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1774,37 +1634,37 @@
         <v>0</v>
       </c>
       <c r="B30" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D30" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="C30" s="1" t="s">
+      <c r="E30" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="D30" s="1" t="s">
+      <c r="F30" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="E30" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="F30" s="1" t="s">
-        <v>102</v>
-      </c>
       <c r="G30" s="1" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K30" s="1" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="L30" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="31" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1812,31 +1672,31 @@
     </row>
     <row r="32" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="B32" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H32" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C32" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="E32" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F32" s="1" t="s">
+      <c r="I32" s="1" t="s">
         <v>47</v>
-      </c>
-      <c r="G32" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="H32" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="I32" s="1" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="33" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1847,157 +1707,157 @@
         <v>0</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G34" s="1" t="s">
         <v>6</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="I34" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="K34" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="L34" s="1" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="M34" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="N34" s="1" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="O34" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="P34" s="1" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="Q34" s="1" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="R34" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="S34" s="1" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="T34" s="1" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="U34" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="V34" s="1" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
     </row>
     <row r="35" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
     </row>
     <row r="36" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D36" s="1" t="s">
         <v>4</v>
       </c>
       <c r="E36" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F36" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F36" s="1" t="s">
-        <v>11</v>
-      </c>
       <c r="G36" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="I36" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="J36" s="1" t="s">
         <v>1</v>
       </c>
       <c r="K36" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="37" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E37" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="G37" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="F37" s="1" t="s">
+      <c r="H37" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I37" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="G37" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="H37" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="I37" s="1" t="s">
-        <v>60</v>
-      </c>
       <c r="J37" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="38" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2005,34 +1865,34 @@
         <v>0</v>
       </c>
       <c r="B38" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D38" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="C38" s="1" t="s">
+      <c r="E38" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G38" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="D38" s="1" t="s">
+      <c r="H38" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I38" s="1" t="s">
         <v>63</v>
-      </c>
-      <c r="E38" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F38" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="G38" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="H38" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I38" s="1" t="s">
-        <v>65</v>
       </c>
       <c r="J38" s="1" t="s">
         <v>6</v>
       </c>
       <c r="K38" s="1" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
     </row>
     <row r="39" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2046,233 +1906,233 @@
         <v>0</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D41" s="1" t="s">
         <v>1</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="H41" s="1" t="s">
         <v>2</v>
       </c>
       <c r="I41" s="1" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="K41" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="42" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="I42" s="1" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="K42" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="L42" s="1" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="M42" s="1" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="N42" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="O42" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="43" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E43" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="B43" s="1" t="s">
+      <c r="F43" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="C43" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="D43" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="E43" s="1" t="s">
+      <c r="G43" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="F43" s="1" t="s">
+      <c r="H43" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="G43" s="1" t="s">
+      <c r="I43" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="H43" s="1" t="s">
+      <c r="J43" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="I43" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="J43" s="1" t="s">
-        <v>90</v>
-      </c>
       <c r="K43" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="44" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D44" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F44" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="E44" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="F44" s="1" t="s">
-        <v>68</v>
-      </c>
       <c r="G44" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I44" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="J44" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K44" s="1" t="s">
         <v>6</v>
       </c>
       <c r="L44" s="1" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
     </row>
     <row r="45" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D45" s="1" t="s">
         <v>69</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="D45" s="1" t="s">
-        <v>71</v>
       </c>
       <c r="E45" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="46" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G46" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="H46" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="I46" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="J46" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="K46" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="B46" s="1" t="s">
+      <c r="L46" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="C46" s="1" t="s">
+      <c r="M46" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="D46" s="1" t="s">
+      <c r="N46" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="E46" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F46" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="G46" s="1" t="s">
+      <c r="O46" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="H46" s="1" t="s">
+      <c r="P46" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="Q46" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="R46" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="I46" s="1" t="s">
+      <c r="S46" s="1" t="s">
         <v>164</v>
-      </c>
-      <c r="J46" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="K46" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="L46" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="M46" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="N46" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="O46" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="P46" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="Q46" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="R46" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="S46" s="1" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="47" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2280,10 +2140,10 @@
     </row>
     <row r="48" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>2</v>
@@ -2292,13 +2152,13 @@
         <v>3</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="49" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2306,22 +2166,22 @@
         <v>0</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
     </row>
     <row r="50" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2329,31 +2189,31 @@
         <v>0</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="I50" s="1" t="s">
         <v>3</v>
       </c>
       <c r="J50" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>

--- a/nova/inventory.xlsx
+++ b/nova/inventory.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="417" uniqueCount="215">
   <si>
     <t>Barracus</t>
   </si>
@@ -212,9 +212,6 @@
     <t xml:space="preserve"> Emerging Basilisk</t>
   </si>
   <si>
-    <t xml:space="preserve"> Jilted Baughe-5</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Auger Bore</t>
   </si>
   <si>
@@ -242,9 +239,6 @@
     <t>Nexor</t>
   </si>
   <si>
-    <t xml:space="preserve"> Baughe</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Noxious Tank</t>
   </si>
   <si>
@@ -482,45 +476,18 @@
     <t xml:space="preserve"> Mutilator</t>
   </si>
   <si>
-    <t xml:space="preserve"> Ion Convertor</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Supernova</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Razor Pinion#2</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Star Burner</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Cyclopse Raged#2</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Savage Ascendant</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Clawgor The Mad</t>
   </si>
   <si>
-    <t xml:space="preserve"> Tarantachnid</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Riot Howitzer</t>
   </si>
   <si>
     <t xml:space="preserve"> Machina Awoken</t>
   </si>
   <si>
-    <t xml:space="preserve"> Captain Dovan</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Malort</t>
   </si>
   <si>
-    <t xml:space="preserve"> Vyander</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Jilted Baughe (2)</t>
   </si>
   <si>
@@ -608,16 +575,100 @@
     <t xml:space="preserve"> Foul Recluse</t>
   </si>
   <si>
-    <t xml:space="preserve"> Typhon Vex-4</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Crushing Anvil</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Tartarus Brood</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Erebus city sector</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Tempest Citadel</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ezamit Tranq</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Razor Pinion (2)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Grand Templar</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Serrated Grater</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> dreamhaunter</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Bolt Crag </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> drudge scimitar</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Deserted Baughe</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Razor Pinion (4)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Cyclops Raged #2</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Savant Ascendant</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Blizzard</t>
+  </si>
+  <si>
+    <t>Avian Baron</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Sphinxite Liberated</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Arindite</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Panopolis</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Belfryze</t>
+  </si>
+  <si>
+    <t>Oreworks</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Shock Disruptor (3)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Scab Grot</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Repulse Ghoul</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Avian Baron</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Jilted Baughe #2</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Odynn the godsteel (2)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Switchblade falcon</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Scab grot</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Decadealer</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Spiteful Raptor</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Noble Defiance (2)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Baughe (2)</t>
   </si>
 </sst>
 </file>
@@ -680,7 +731,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -690,6 +741,12 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -971,10 +1028,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V50"/>
+  <dimension ref="A1:W50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="22.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -989,24 +1046,25 @@
     <col min="8" max="8" width="20.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="18.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="18.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="17.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="18.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="16.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="19" style="1" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="17" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="19.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="16.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="22.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="18.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="16.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="9.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="11.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="16.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="17.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="13.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="22.28515625" style="1"/>
+    <col min="23" max="23" width="9.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="22.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>39</v>
@@ -1021,7 +1079,7 @@
         <v>3</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>4</v>
@@ -1030,22 +1088,158 @@
         <v>5</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>165</v>
+        <v>154</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="2"/>
-    </row>
-    <row r="3" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="2"/>
-    </row>
-    <row r="4" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="V2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="W2" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="S3" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="T3" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="U3" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="V3" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="W3" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
@@ -1056,13 +1250,13 @@
         <v>57</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>8</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>16</v>
@@ -1074,7 +1268,7 @@
         <v>9</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="K4" s="1" t="s">
         <v>18</v>
@@ -1092,7 +1286,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>13</v>
       </c>
@@ -1112,7 +1306,7 @@
         <v>17</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>9</v>
+        <v>207</v>
       </c>
       <c r="H5" s="1" t="s">
         <v>18</v>
@@ -1129,25 +1323,28 @@
       <c r="L5" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="6" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M5" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>2</v>
@@ -1156,24 +1353,24 @@
         <v>36</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>27</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="L6" s="1" t="s">
         <v>22</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>56</v>
@@ -1182,16 +1379,16 @@
         <v>8</v>
       </c>
       <c r="D7" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="F7" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="E7" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>118</v>
-      </c>
       <c r="G7" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="H7" s="1" t="s">
         <v>49</v>
@@ -1200,13 +1397,13 @@
         <v>18</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="K7" s="1" t="s">
         <v>36</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="M7" s="1" t="s">
         <v>27</v>
@@ -1215,30 +1412,30 @@
         <v>39</v>
       </c>
       <c r="O7" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="P7" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C8" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="E8" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="F8" s="1" t="s">
         <v>91</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>93</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>32</v>
@@ -1247,69 +1444,81 @@
         <v>20</v>
       </c>
       <c r="I8" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="N8" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="O8" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="P8" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="Q8" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="R8" s="1" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="H9" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="J8" s="1" t="s">
+      <c r="I9" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="K8" s="1" t="s">
+      <c r="J9" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="L8" s="1" t="s">
+      <c r="K9" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="M8" s="1" t="s">
+      <c r="L9" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="N8" s="1" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="B9" s="1" t="s">
+      <c r="M9" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="N9" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="D9" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="K9" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="L9" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="M9" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="N9" s="1" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="10" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>0</v>
       </c>
@@ -1329,7 +1538,7 @@
         <v>16</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>184</v>
+        <v>173</v>
       </c>
       <c r="H10" s="1" t="s">
         <v>6</v>
@@ -1347,7 +1556,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>23</v>
       </c>
@@ -1355,15 +1564,15 @@
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="2"/>
-    </row>
-    <row r="13" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="4"/>
+    </row>
+    <row r="13" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>25</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>4</v>
@@ -1372,7 +1581,7 @@
         <v>56</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>9</v>
@@ -1380,28 +1589,31 @@
       <c r="G13" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="2"/>
-    </row>
-    <row r="15" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H13" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="4"/>
+    </row>
+    <row r="15" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>56</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="G15" s="1" t="s">
         <v>52</v>
@@ -1410,82 +1622,82 @@
         <v>31</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="2"/>
+        <v>99</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="4"/>
     </row>
     <row r="17" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="D17" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="B17" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="C17" s="1" t="s">
+      <c r="E17" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="F17" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="E17" s="1" t="s">
+      <c r="G17" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="F17" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>128</v>
-      </c>
       <c r="H17" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>185</v>
+        <v>174</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="18" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="2"/>
+      <c r="A18" s="4"/>
     </row>
     <row r="19" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="2"/>
+      <c r="A19" s="4"/>
     </row>
     <row r="20" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E20" s="1" t="s">
         <v>129</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>131</v>
       </c>
       <c r="F20" s="1" t="s">
         <v>51</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="21" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B21" s="1" t="s">
         <v>76</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>78</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>27</v>
@@ -1507,25 +1719,25 @@
     </row>
     <row r="23" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F23" s="1" t="s">
         <v>38</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H23" s="1" t="s">
         <v>41</v>
@@ -1551,7 +1763,7 @@
         <v>34</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>186</v>
+        <v>175</v>
       </c>
     </row>
     <row r="25" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1568,10 +1780,10 @@
         <v>22</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="G25" s="1" t="s">
         <v>8</v>
@@ -1582,7 +1794,7 @@
         <v>35</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>36</v>
@@ -1602,10 +1814,10 @@
     </row>
     <row r="27" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>41</v>
@@ -1620,39 +1832,39 @@
         <v>43</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="28" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="2"/>
+      <c r="A28" s="4"/>
     </row>
     <row r="29" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="2"/>
+      <c r="A29" s="4"/>
     </row>
     <row r="30" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B30" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="D30" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="C30" s="1" t="s">
+      <c r="E30" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="D30" s="1" t="s">
+      <c r="F30" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="E30" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="F30" s="1" t="s">
-        <v>100</v>
-      </c>
       <c r="G30" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="I30" s="1" t="s">
         <v>18</v>
@@ -1661,18 +1873,18 @@
         <v>49</v>
       </c>
       <c r="K30" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="L30" s="1" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="31" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="2"/>
+      <c r="A31" s="4"/>
     </row>
     <row r="32" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>44</v>
@@ -1700,14 +1912,43 @@
       </c>
     </row>
     <row r="33" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="2"/>
+      <c r="A33" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="I33" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="J33" s="1" t="s">
+        <v>191</v>
+      </c>
     </row>
     <row r="34" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>1</v>
@@ -1725,49 +1966,49 @@
         <v>6</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="I34" s="1" t="s">
         <v>51</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="K34" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="L34" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="M34" s="1" t="s">
         <v>8</v>
       </c>
       <c r="N34" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="O34" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="P34" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="Q34" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="R34" s="1" t="s">
         <v>56</v>
       </c>
       <c r="S34" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="T34" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="U34" s="1" t="s">
         <v>29</v>
       </c>
       <c r="V34" s="1" t="s">
-        <v>187</v>
+        <v>176</v>
       </c>
     </row>
     <row r="35" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1790,7 +2031,10 @@
         <v>18</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
+      </c>
+      <c r="H35" s="1" t="s">
+        <v>188</v>
       </c>
     </row>
     <row r="36" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1830,7 +2074,7 @@
     </row>
     <row r="37" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
-        <v>188</v>
+        <v>177</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>9</v>
@@ -1839,7 +2083,7 @@
         <v>38</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E37" s="1" t="s">
         <v>55</v>
@@ -1880,33 +2124,62 @@
         <v>32</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>62</v>
+        <v>192</v>
       </c>
       <c r="H38" s="1" t="s">
         <v>12</v>
       </c>
       <c r="I38" s="1" t="s">
-        <v>63</v>
+        <v>18</v>
       </c>
       <c r="J38" s="1" t="s">
         <v>6</v>
       </c>
       <c r="K38" s="1" t="s">
-        <v>189</v>
+        <v>178</v>
+      </c>
+      <c r="L38" s="1" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="2"/>
+      <c r="A39" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="H39" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="I39" s="1" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="40" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="2"/>
+      <c r="A40" s="4"/>
     </row>
     <row r="41" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>10</v>
@@ -1915,36 +2188,42 @@
         <v>1</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="F41" s="1" t="s">
         <v>22</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>190</v>
+        <v>179</v>
       </c>
       <c r="H41" s="1" t="s">
         <v>2</v>
       </c>
       <c r="I41" s="1" t="s">
-        <v>191</v>
+        <v>180</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>72</v>
+        <v>12</v>
       </c>
       <c r="K41" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="L41" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="M41" s="1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="42" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="C42" s="1" t="s">
         <v>145</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>147</v>
       </c>
       <c r="D42" s="1" t="s">
         <v>49</v>
@@ -1953,16 +2232,16 @@
         <v>18</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="H42" s="1" t="s">
         <v>19</v>
       </c>
       <c r="I42" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="J42" s="1" t="s">
         <v>40</v>
@@ -1971,10 +2250,10 @@
         <v>39</v>
       </c>
       <c r="L42" s="1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="M42" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="N42" s="1" t="s">
         <v>10</v>
@@ -1985,34 +2264,34 @@
     </row>
     <row r="43" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E43" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="B43" s="1" t="s">
+      <c r="F43" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="C43" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="D43" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="E43" s="1" t="s">
+      <c r="G43" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="F43" s="1" t="s">
+      <c r="H43" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="G43" s="1" t="s">
+      <c r="I43" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="H43" s="1" t="s">
+      <c r="J43" s="1" t="s">
         <v>86</v>
-      </c>
-      <c r="I43" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="J43" s="1" t="s">
-        <v>88</v>
       </c>
       <c r="K43" s="1" t="s">
         <v>52</v>
@@ -2020,127 +2299,85 @@
     </row>
     <row r="44" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="2" t="s">
-        <v>50</v>
+        <v>148</v>
       </c>
       <c r="B44" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="D44" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="C44" s="1" t="s">
+      <c r="E44" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="D44" s="1" t="s">
+      <c r="F44" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="G44" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="E44" s="1" t="s">
+      <c r="H44" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="F44" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="G44" s="1" t="s">
+      <c r="I44" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H44" s="1" t="s">
+      <c r="J44" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="I44" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="J44" s="1" t="s">
-        <v>51</v>
-      </c>
       <c r="K44" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="L44" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="M44" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="L44" s="1" t="s">
-        <v>136</v>
+      <c r="N44" s="1" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="45" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>22</v>
       </c>
       <c r="C45" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D45" s="1" t="s">
         <v>68</v>
-      </c>
-      <c r="D45" s="1" t="s">
-        <v>69</v>
       </c>
       <c r="E45" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="46" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="2" t="s">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>151</v>
+        <v>94</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="D46" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="E46" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="F46" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G46" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="H46" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="I46" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="J46" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="K46" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="L46" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="M46" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="N46" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="O46" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="P46" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="Q46" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="R46" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="S46" s="1" t="s">
-        <v>164</v>
+        <v>135</v>
       </c>
     </row>
     <row r="47" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="2"/>
+      <c r="A47" s="4"/>
     </row>
     <row r="48" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B48" s="1" t="s">
         <v>39</v>
@@ -2152,7 +2389,7 @@
         <v>3</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>165</v>
+        <v>154</v>
       </c>
       <c r="F48" s="1" t="s">
         <v>16</v>
@@ -2161,7 +2398,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="49" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="2" t="s">
         <v>0</v>
       </c>
@@ -2169,56 +2406,27 @@
         <v>52</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>192</v>
+        <v>181</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="50" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B50" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="C50" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="D50" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="E50" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="F50" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="G50" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="H50" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="I50" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="J50" s="1" t="s">
-        <v>38</v>
-      </c>
+        <v>182</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="2"/>
     </row>
   </sheetData>
-  <sortState ref="A2:C51">
-    <sortCondition descending="1" ref="B2"/>
+  <sortState ref="A2:N51">
+    <sortCondition descending="1" ref="A2"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/nova/inventory.xlsx
+++ b/nova/inventory.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="417" uniqueCount="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="522" uniqueCount="261">
   <si>
     <t>Barracus</t>
   </si>
@@ -101,9 +101,6 @@
     <t xml:space="preserve"> xeno suzerain</t>
   </si>
   <si>
-    <t>Arch Nova Alpha</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Abhorrent Recluse</t>
   </si>
   <si>
@@ -233,9 +230,6 @@
     <t xml:space="preserve"> demi constrictor</t>
   </si>
   <si>
-    <t xml:space="preserve"> baughe (2)</t>
-  </si>
-  <si>
     <t>Nexor</t>
   </si>
   <si>
@@ -419,15 +413,6 @@
     <t xml:space="preserve"> Oreworks#2</t>
   </si>
   <si>
-    <t xml:space="preserve"> Smite Forge</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Samurai</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Lucifire re</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Constantine</t>
   </si>
   <si>
@@ -669,6 +654,159 @@
   </si>
   <si>
     <t xml:space="preserve"> Baughe (2)</t>
+  </si>
+  <si>
+    <t>Lord Silus</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Stoneheart</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Dreamhaunter</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Revered exarch (3)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Asterion</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Grand templar</t>
+  </si>
+  <si>
+    <t>AlaRic</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> trench hurler</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> oreworks (3)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> scorched hellwing</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> bolt crag</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> deserted Baugh</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> wurz the brazen</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> plate meld</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> demi constrictor (2)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> portal noctil (2)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> arc nova alpha</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> council's hubris</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> lucifire</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> cockatrice baxis</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> savant ascendant</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> obsidian</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> irrian grafter</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> dune runner</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> chainslicer</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Artemis arc core</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> steel outfitter</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> allogarb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> abhorrent recluse</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Irrian Grafter</t>
+  </si>
+  <si>
+    <t>Honorable Samurai</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Zodiac Harbinger (4)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Tygarm Resolute</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Serraco Lord</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Lucifirere</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Decorated Marshall</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Baugh (2)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Dreamweaver</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Jilted baughe</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> baughe</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ardenmass</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Hephatat Stoic</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Triad Cannon</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> halcyon</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Hellgazer</t>
+  </si>
+  <si>
+    <t>Garrison Fortified</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Indestructible Troop</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Swift Hellion</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Rox Chainslash</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Lord Solis</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Irrian Grafer</t>
   </si>
 </sst>
 </file>
@@ -731,7 +869,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -741,9 +879,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1028,10 +1163,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W50"/>
+  <dimension ref="A1:Z50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
+      <selection activeCell="Q23" sqref="Q23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="22.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1039,127 +1174,150 @@
     <col min="1" max="1" width="18.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="20.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="19.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="18.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="18.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="18.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="17.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="19" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="18.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="19" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="19.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="17" style="1" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="22.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="18.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="16.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="11.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="16.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="17.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="13.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="9.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="22.28515625" style="1"/>
+    <col min="16" max="16" width="42.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="16.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="18.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="18.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="16.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="18.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="16.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="17.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="13.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="17.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="16384" width="22.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>100</v>
+        <v>210</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="G1" s="1" t="s">
+      <c r="M1" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="N1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="K1" s="1" t="s">
+      <c r="P1" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="R1" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>18</v>
       </c>
       <c r="E2" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="M2" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="N2" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="O2" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="H2" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="K2" s="1" t="s">
+      <c r="P2" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="L2" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="P2" s="1" t="s">
-        <v>201</v>
-      </c>
       <c r="Q2" s="1" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="R2" s="1" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="S2" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="T2" s="1" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="U2" s="1" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="V2" s="1" t="s">
         <v>1</v>
@@ -1168,36 +1326,36 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>18</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="K3" s="1" t="s">
         <v>7</v>
@@ -1209,37 +1367,37 @@
         <v>3</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="P3" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="Q3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="R3" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="S3" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="S3" s="1" t="s">
-        <v>40</v>
-      </c>
       <c r="T3" s="1" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="U3" s="1" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="V3" s="1" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="W3" s="1" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="4" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
@@ -1247,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>8</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>16</v>
@@ -1268,25 +1426,25 @@
         <v>9</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="K4" s="1" t="s">
         <v>18</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="M4" s="1" t="s">
         <v>3</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="O4" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>13</v>
       </c>
@@ -1306,7 +1464,7 @@
         <v>17</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="H5" s="1" t="s">
         <v>18</v>
@@ -1321,204 +1479,219 @@
         <v>19</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="6" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>2</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="L6" s="1" t="s">
         <v>22</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="7" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D7" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="F7" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="E7" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>116</v>
-      </c>
       <c r="G7" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I7" s="1" t="s">
         <v>18</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="O7" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="P7" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C8" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="E8" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="F8" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="E8" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>91</v>
-      </c>
       <c r="G8" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H8" s="1" t="s">
         <v>20</v>
       </c>
       <c r="I8" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="N8" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="O8" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="P8" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="Q8" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="R8" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="S8" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="T8" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="U8" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="V8" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="W8" s="1" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="J8" s="1" t="s">
+      <c r="C9" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="K8" s="1" t="s">
+      <c r="D9" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="L8" s="1" t="s">
+      <c r="E9" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="M8" s="1" t="s">
+      <c r="F9" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="N8" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="O8" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="P8" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="Q8" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="R8" s="1" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="9" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="B9" s="1" t="s">
+      <c r="G9" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="H9" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="I9" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="J9" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="F9" s="1" t="s">
+      <c r="K9" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="G9" s="1" t="s">
+      <c r="L9" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="H9" s="1" t="s">
+      <c r="M9" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="I9" s="1" t="s">
+      <c r="N9" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="J9" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="K9" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="L9" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="M9" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="N9" s="1" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="10" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="10" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>0</v>
       </c>
@@ -1538,7 +1711,7 @@
         <v>16</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="H10" s="1" t="s">
         <v>6</v>
@@ -1550,13 +1723,19 @@
         <v>18</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="11" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>26</v>
+      </c>
+      <c r="M10" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="N10" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>23</v>
       </c>
@@ -1564,24 +1743,98 @@
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="4"/>
-    </row>
-    <row r="13" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="L12" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="M12" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="N12" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="O12" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="P12" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="Q12" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="R12" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="S12" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="T12" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="U12" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="V12" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="W12" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="X12" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="Y12" s="1" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>9</v>
@@ -1592,186 +1845,221 @@
       <c r="H13" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="14" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="4"/>
-    </row>
-    <row r="15" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I13" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="L13" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="2"/>
+    </row>
+    <row r="15" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F15" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="2"/>
+    </row>
+    <row r="17" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="G15" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="H15" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="I15" s="1" t="s">
+      <c r="B17" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C17" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="J15" s="1" t="s">
+      <c r="D17" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="2"/>
+    </row>
+    <row r="20" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="G20" s="1" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="16" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="4"/>
-    </row>
-    <row r="17" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="H17" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="I17" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="J17" s="1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="4"/>
-    </row>
-    <row r="19" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="4"/>
-    </row>
-    <row r="20" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B21" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="B21" s="1" t="s">
-        <v>76</v>
-      </c>
       <c r="C21" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>38</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B22" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B22" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C22" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C24" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D24" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D24" s="1" t="s">
+      <c r="E24" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E24" s="1" t="s">
+      <c r="F24" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="F24" s="1" t="s">
-        <v>34</v>
-      </c>
       <c r="G24" s="1" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>2</v>
@@ -1780,272 +2068,337 @@
         <v>22</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="G25" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="26" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C26" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B26" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="C26" s="1" t="s">
+      <c r="D26" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D26" s="1" t="s">
+      <c r="E26" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E26" s="1" t="s">
+      <c r="F26" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="F26" s="1" t="s">
+      <c r="G26" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="G26" s="1" t="s">
+    </row>
+    <row r="27" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C27" s="1" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="27" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="C27" s="1" t="s">
+      <c r="D27" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D27" s="1" t="s">
+      <c r="E27" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E27" s="1" t="s">
-        <v>24</v>
-      </c>
       <c r="F27" s="1" t="s">
-        <v>43</v>
+        <v>99</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="4"/>
-    </row>
-    <row r="29" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="4"/>
-    </row>
-    <row r="30" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>22</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I28" s="1" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="2"/>
+    </row>
+    <row r="30" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B30" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="D30" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="C30" s="1" t="s">
+      <c r="E30" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="D30" s="1" t="s">
+      <c r="F30" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="E30" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="F30" s="1" t="s">
-        <v>98</v>
-      </c>
       <c r="G30" s="1" t="s">
-        <v>131</v>
+        <v>18</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>132</v>
+        <v>48</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>18</v>
+        <v>244</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K30" s="1" t="s">
-        <v>133</v>
+        <v>245</v>
       </c>
       <c r="L30" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="4"/>
-    </row>
-    <row r="32" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>136</v>
+      </c>
+      <c r="M30" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="N30" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="O30" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="P30" s="1" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="2"/>
+    </row>
+    <row r="32" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E32" s="1" t="s">
         <v>16</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G32" s="1" t="s">
         <v>22</v>
       </c>
       <c r="H32" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="I32" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="I32" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="33" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J32" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="K32" s="1" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="33" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="34" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="34" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>40</v>
+        <v>102</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>52</v>
+        <v>26</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="G34" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H34" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H34" s="1" t="s">
+      <c r="I34" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="J34" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="K34" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="L34" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="M34" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="N34" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="O34" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="P34" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="Q34" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="R34" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="S34" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="T34" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="U34" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="V34" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="W34" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="I34" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="J34" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="K34" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="L34" s="1" t="s">
+      <c r="X34" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="Y34" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="M34" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="N34" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="O34" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="P34" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="Q34" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="R34" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="S34" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="T34" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="U34" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="V34" s="1" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="35" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Z34" s="1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="35" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F35" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B35" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E35" s="1" t="s">
+      <c r="G35" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H35" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="I35" s="1" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="36" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="2" t="s">
         <v>49</v>
-      </c>
-      <c r="F35" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G35" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="H35" s="1" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="36" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="2" t="s">
-        <v>50</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D36" s="1" t="s">
         <v>4</v>
@@ -2060,30 +2413,30 @@
         <v>18</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I36" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J36" s="1" t="s">
         <v>1</v>
       </c>
       <c r="K36" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="37" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D37" s="1" t="s">
         <v>54</v>
-      </c>
-    </row>
-    <row r="37" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>71</v>
       </c>
       <c r="E37" s="1" t="s">
         <v>55</v>
@@ -2092,39 +2445,42 @@
         <v>56</v>
       </c>
       <c r="G37" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H37" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="H37" s="1" t="s">
-        <v>16</v>
-      </c>
       <c r="I37" s="1" t="s">
-        <v>58</v>
+        <v>35</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="38" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>173</v>
+      </c>
+      <c r="K37" s="1" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="38" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B38" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C38" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="C38" s="1" t="s">
+      <c r="D38" s="1" t="s">
         <v>60</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>61</v>
       </c>
       <c r="E38" s="1" t="s">
         <v>16</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="H38" s="1" t="s">
         <v>12</v>
@@ -2136,50 +2492,53 @@
         <v>6</v>
       </c>
       <c r="K38" s="1" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="L38" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="39" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="5" t="s">
-        <v>202</v>
+      <c r="M38" s="1" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="39" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="4" t="s">
+        <v>197</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E39" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="F39" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="F39" s="1" t="s">
-        <v>200</v>
-      </c>
       <c r="G39" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="I39" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="4"/>
-    </row>
-    <row r="41" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="2"/>
+    </row>
+    <row r="41" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>10</v>
@@ -2188,139 +2547,148 @@
         <v>1</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="F41" s="1" t="s">
         <v>22</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="H41" s="1" t="s">
         <v>2</v>
       </c>
       <c r="I41" s="1" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="J41" s="1" t="s">
         <v>12</v>
       </c>
       <c r="K41" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="L41" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="M41" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="42" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E42" s="1" t="s">
         <v>18</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="H42" s="1" t="s">
         <v>19</v>
       </c>
       <c r="I42" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K42" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L42" s="1" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="M42" s="1" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="N42" s="1" t="s">
         <v>10</v>
       </c>
       <c r="O42" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="43" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="43" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E43" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="B43" s="1" t="s">
+      <c r="F43" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="C43" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="D43" s="1" t="s">
+      <c r="G43" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="H43" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="I43" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="J43" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="K43" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="L43" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="M43" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="N43" s="1" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="44" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F44" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="E43" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="F43" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="G43" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="H43" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="I43" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="J43" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="K43" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="44" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="D44" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="E44" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="F44" s="1" t="s">
+      <c r="G44" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="G44" s="1" t="s">
+      <c r="H44" s="1" t="s">
         <v>64</v>
-      </c>
-      <c r="H44" s="1" t="s">
-        <v>65</v>
       </c>
       <c r="I44" s="1" t="s">
         <v>12</v>
@@ -2329,58 +2697,70 @@
         <v>18</v>
       </c>
       <c r="K44" s="1" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="L44" s="1" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="M44" s="1" t="s">
         <v>6</v>
       </c>
       <c r="N44" s="1" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="45" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="45" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D45" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="B45" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C45" s="1" t="s">
+      <c r="E45" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="D45" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="E45" s="1" t="s">
+      <c r="F45" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F45" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="46" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G45" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="H45" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I45" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J45" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="46" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="47" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="4"/>
-    </row>
-    <row r="48" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="47" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="2"/>
+    </row>
+    <row r="48" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>2</v>
@@ -2389,40 +2769,108 @@
         <v>3</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="F48" s="1" t="s">
         <v>16</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="49" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="2"/>
+        <v>177</v>
+      </c>
+      <c r="H49" s="1" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="50" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="G50" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="H50" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="I50" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J50" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="K50" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="L50" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="M50" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="N50" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="O50" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="P50" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q50" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="R50" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="S50" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="T50" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="U50" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="V50" s="1" t="s">
+        <v>239</v>
+      </c>
     </row>
   </sheetData>
   <sortState ref="A2:N51">
